--- a/FindingHospital/Excel/data.xlsx
+++ b/FindingHospital/Excel/data.xlsx
@@ -77,10 +77,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -101,6 +102,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -114,6 +122,7 @@
       <color rgb="FF2A00FF"/>
       <name val="Consolas"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -158,16 +167,24 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -251,148 +268,149 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
+      <selection pane="topLeft" activeCell="F25" activeCellId="0" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="19.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="17.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="24.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="19.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="14.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="17.34"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="6" style="1" width="11.54"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3" s="1" t="n">
         <v>9876543210</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="E7" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="0" t="n">
+      <c r="D8" s="1" t="n">
         <v>9876543210</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="0" t="s">
+      <c r="E12" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="0" t="n">
+      <c r="D13" s="1" t="n">
         <v>987654321010</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c r="A16" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+      <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" s="1" t="s">
         <v>16</v>
       </c>
     </row>
